--- a/da-module-pandas/01_pandas_intro/data/penguins_simple_copy.xlsx
+++ b/da-module-pandas/01_pandas_intro/data/penguins_simple_copy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A334"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2338 +436,8024 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Species;Culmen Length (mm);Culmen Depth (mm);Flipper Length (mm);Body Mass (g);Sex</t>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Culmen Length (mm)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Culmen Depth (mm)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Flipper Length (mm)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Body Mass (g)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sex</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adelie;39.1;18.7;181.0;3750.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>181</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3750</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Adelie;39.5;17.4;186.0;3800.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>186</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adelie;40.3;18.0;195.0;3250.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>195</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3250</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Adelie;36.7;19.3;193.0;3450.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>193</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Adelie;39.3;20.6;190.0;3650.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>190</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3650</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Adelie;38.9;17.8;181.0;3625.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>181</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3625</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Adelie;39.2;19.6;195.0;4675.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>195</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4675</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Adelie;41.1;17.6;182.0;3200.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>182</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Adelie;38.6;21.2;191.0;3800.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>191</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adelie;34.6;21.1;198.0;4400.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>198</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Adelie;36.6;17.8;185.0;3700.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>185</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Adelie;38.7;19.0;195.0;3450.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Adelie;42.5;20.7;197.0;4500.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>197</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Adelie;34.4;18.4;184.0;3325.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>184</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3325</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Adelie;46.0;21.5;194.0;4200.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>46</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>194</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Adelie;37.8;18.3;174.0;3400.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>174</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Adelie;37.7;18.7;180.0;3600.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>180</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Adelie;35.9;19.2;189.0;3800.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>189</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Adelie;38.2;18.1;185.0;3950.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>185</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Adelie;38.8;17.2;180.0;3800.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>180</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Adelie;35.3;18.9;187.0;3800.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>187</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Adelie;40.6;18.6;183.0;3550.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>183</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Adelie;40.5;17.9;187.0;3200.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>187</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Adelie;37.9;18.6;172.0;3150.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>172</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3150</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Adelie;40.5;18.9;180.0;3950.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>180</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Adelie;39.5;16.7;178.0;3250.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>178</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3250</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Adelie;37.2;18.1;178.0;3900.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>178</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Adelie;39.5;17.8;188.0;3300.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>188</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Adelie;40.9;18.9;184.0;3900.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>184</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Adelie;36.4;17.0;195.0;3325.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17</v>
+      </c>
+      <c r="D31" t="n">
+        <v>195</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3325</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Adelie;39.2;21.1;196.0;4150.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>196</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4150</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Adelie;38.8;20.0;190.0;3950.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20</v>
+      </c>
+      <c r="D33" t="n">
+        <v>190</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Adelie;42.2;18.5;180.0;3550.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>180</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Adelie;37.6;19.3;181.0;3300.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>181</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Adelie;39.8;19.1;184.0;4650.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>184</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4650</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Adelie;36.5;18.0;182.0;3150.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>18</v>
+      </c>
+      <c r="D37" t="n">
+        <v>182</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3150</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Adelie;40.8;18.4;195.0;3900.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>195</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Adelie;36.0;18.5;186.0;3100.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>186</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Adelie;44.1;19.7;196.0;4400.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>196</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Adelie;37.0;16.9;185.0;3000.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>37</v>
+      </c>
+      <c r="C41" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>185</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Adelie;39.6;18.8;190.0;4600.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>190</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4600</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Adelie;41.1;19.0;182.0;3425.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19</v>
+      </c>
+      <c r="D43" t="n">
+        <v>182</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3425</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Adelie;36.0;17.9;190.0;3450.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>36</v>
+      </c>
+      <c r="C44" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>190</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Adelie;42.3;21.2;191.0;4150.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>191</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4150</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Adelie;39.6;17.7;186.0;3500.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>186</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Adelie;40.1;18.9;188.0;4300.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>188</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Adelie;35.0;17.9;190.0;3450.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>35</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>190</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Adelie;42.0;19.5;200.0;4050.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>42</v>
+      </c>
+      <c r="C49" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4050</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Adelie;34.5;18.1;187.0;2900.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>187</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Adelie;41.4;18.6;191.0;3700.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C51" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>191</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Adelie;39.0;17.5;186.0;3550.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>39</v>
+      </c>
+      <c r="C52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>186</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Adelie;40.6;18.8;193.0;3800.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>193</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Adelie;36.5;16.6;181.0;2850.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>181</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Adelie;37.6;19.1;194.0;3750.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>194</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3750</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Adelie;35.7;16.9;185.0;3150.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>185</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3150</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Adelie;41.3;21.1;195.0;4400.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>195</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Adelie;37.6;17.0;185.0;3600.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>17</v>
+      </c>
+      <c r="D58" t="n">
+        <v>185</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Adelie;41.1;18.2;192.0;4050.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>192</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4050</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Adelie;36.4;17.1;184.0;2850.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>184</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Adelie;41.6;18.0;192.0;3950.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>192</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Adelie;35.5;16.2;195.0;3350.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>195</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3350</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Adelie;41.1;19.1;188.0;4100.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>188</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Adelie;35.9;16.6;190.0;3050.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>190</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3050</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Adelie;41.8;19.4;198.0;4450.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>198</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4450</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Adelie;33.5;19.0;190.0;3600.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19</v>
+      </c>
+      <c r="D66" t="n">
+        <v>190</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Adelie;39.7;18.4;190.0;3900.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C67" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>190</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Adelie;39.6;17.2;196.0;3550.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>196</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Adelie;45.8;18.9;197.0;4150.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>197</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4150</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Adelie;35.5;17.5;190.0;3700.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>190</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Adelie;42.8;18.5;195.0;4250.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>195</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4250</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Adelie;40.9;16.8;191.0;3700.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>191</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Adelie;37.2;19.4;184.0;3900.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>184</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Adelie;36.2;16.1;187.0;3550.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>187</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Adelie;42.1;19.1;195.0;4000.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>195</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Adelie;34.6;17.2;189.0;3200.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>189</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Adelie;42.9;17.6;196.0;4700.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>196</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4700</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Adelie;36.7;18.8;187.0;3800.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C78" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>187</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Adelie;35.1;19.4;193.0;4200.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>193</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Adelie;37.3;17.8;191.0;3350.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>191</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3350</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Adelie;41.3;20.3;194.0;3550.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>194</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Adelie;36.3;19.5;190.0;3800.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>190</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Adelie;36.9;18.6;189.0;3500.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>189</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Adelie;38.3;19.2;189.0;3950.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>189</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Adelie;38.9;18.8;190.0;3600.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C85" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>190</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Adelie;35.7;18.0;202.0;3550.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C86" t="n">
+        <v>18</v>
+      </c>
+      <c r="D86" t="n">
+        <v>202</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Adelie;41.1;18.1;205.0;4300.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>205</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Adelie;34.0;17.1;185.0;3400.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>34</v>
+      </c>
+      <c r="C88" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>185</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Adelie;39.6;18.1;186.0;4450.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C89" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>186</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4450</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Adelie;36.2;17.3;187.0;3300.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>187</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Adelie;40.8;18.9;208.0;4300.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C91" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>208</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Adelie;38.1;18.6;190.0;3700.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>190</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Adelie;40.3;18.5;196.0;4350.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="C93" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>196</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4350</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Adelie;33.1;16.1;178.0;2900.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>178</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Adelie;43.2;18.5;192.0;4100.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>192</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Adelie;35.0;17.9;192.0;3725.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>35</v>
+      </c>
+      <c r="C96" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>192</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3725</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Adelie;41.0;20.0;203.0;4725.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>41</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20</v>
+      </c>
+      <c r="D97" t="n">
+        <v>203</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4725</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Adelie;37.7;16.0;183.0;3075.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C98" t="n">
+        <v>16</v>
+      </c>
+      <c r="D98" t="n">
+        <v>183</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3075</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Adelie;37.8;20.0;190.0;4250.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C99" t="n">
+        <v>20</v>
+      </c>
+      <c r="D99" t="n">
+        <v>190</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4250</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Adelie;37.9;18.6;193.0;2925.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C100" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>193</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2925</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Adelie;39.7;18.9;184.0;3550.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C101" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>184</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Adelie;38.6;17.2;199.0;3750.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>199</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3750</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Adelie;38.2;20.0;190.0;3900.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>20</v>
+      </c>
+      <c r="D103" t="n">
+        <v>190</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Adelie;38.1;17.0;181.0;3175.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>17</v>
+      </c>
+      <c r="D104" t="n">
+        <v>181</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3175</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Adelie;43.2;19.0;197.0;4775.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>19</v>
+      </c>
+      <c r="D105" t="n">
+        <v>197</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4775</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Adelie;38.1;16.5;198.0;3825.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>198</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3825</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Adelie;45.6;20.3;191.0;4600.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>191</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4600</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Adelie;39.7;17.7;193.0;3200.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>193</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Adelie;42.2;19.5;197.0;4275.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>197</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4275</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Adelie;39.6;20.7;191.0;3900.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>191</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Adelie;42.7;18.3;196.0;4075.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>196</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4075</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Adelie;38.6;17.0;188.0;2900.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C112" t="n">
+        <v>17</v>
+      </c>
+      <c r="D112" t="n">
+        <v>188</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Adelie;37.3;20.5;199.0;3775.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>199</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3775</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Adelie;35.7;17.0;189.0;3350.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>17</v>
+      </c>
+      <c r="D114" t="n">
+        <v>189</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3350</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Adelie;41.1;18.6;189.0;3325.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>189</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3325</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Adelie;36.2;17.2;187.0;3150.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>187</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3150</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Adelie;37.7;19.8;198.0;3500.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>198</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Adelie;40.2;17.0;176.0;3450.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>17</v>
+      </c>
+      <c r="D118" t="n">
+        <v>176</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Adelie;41.4;18.5;202.0;3875.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>202</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3875</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Adelie;35.2;15.9;186.0;3050.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>186</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3050</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Adelie;40.6;19.0;199.0;4000.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>19</v>
+      </c>
+      <c r="D121" t="n">
+        <v>199</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Adelie;38.8;17.6;191.0;3275.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>191</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3275</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Adelie;41.5;18.3;195.0;4300.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>195</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Adelie;39.0;17.1;191.0;3050.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>39</v>
+      </c>
+      <c r="C124" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>191</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3050</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Adelie;44.1;18.0;210.0;4000.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>18</v>
+      </c>
+      <c r="D125" t="n">
+        <v>210</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Adelie;38.5;17.9;190.0;3325.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>190</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3325</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Adelie;43.1;19.2;197.0;3500.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>197</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Adelie;36.8;18.5;193.0;3500.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>193</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Adelie;37.5;18.5;199.0;4475.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>199</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4475</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Adelie;38.1;17.6;187.0;3425.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>187</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3425</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Adelie;41.1;17.5;190.0;3900.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>190</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Adelie;35.6;17.5;191.0;3175.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>191</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3175</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Adelie;40.2;20.1;200.0;3975.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>200</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3975</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Adelie;37.0;16.5;185.0;3400.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>37</v>
+      </c>
+      <c r="C134" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>185</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Adelie;39.7;17.9;193.0;4250.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>193</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4250</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Adelie;40.2;17.1;193.0;3400.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>193</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Adelie;40.6;17.2;187.0;3475.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>187</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3475</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Adelie;32.1;15.5;188.0;3050.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>188</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3050</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Adelie;40.7;17.0;190.0;3725.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>17</v>
+      </c>
+      <c r="D139" t="n">
+        <v>190</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3725</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Adelie;37.3;16.8;192.0;3000.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>192</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Adelie;39.0;18.7;185.0;3650.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>39</v>
+      </c>
+      <c r="C141" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>185</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3650</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Adelie;39.2;18.6;190.0;4250.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>190</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4250</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Adelie;36.6;18.4;184.0;3475.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>184</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3475</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Adelie;36.0;17.8;195.0;3450.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>36</v>
+      </c>
+      <c r="C144" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>195</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Adelie;37.8;18.1;193.0;3750.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>193</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3750</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Adelie;36.0;17.1;187.0;3700.0;FEMALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>36</v>
+      </c>
+      <c r="C146" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>187</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Adelie;41.5;18.5;201.0;4000.0;MALE</t>
+          <t>Adelie</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>201</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Chinstrap;46.5;17.9;192.0;3500.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>192</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Chinstrap;50.0;19.5;196.0;3900.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>50</v>
+      </c>
+      <c r="C149" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>196</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Chinstrap;51.3;19.2;193.0;3650.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>193</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3650</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Chinstrap;45.4;18.7;188.0;3525.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>188</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3525</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Chinstrap;52.7;19.8;197.0;3725.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>197</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3725</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Chinstrap;45.2;17.8;198.0;3950.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>198</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Chinstrap;46.1;18.2;178.0;3250.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>178</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3250</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Chinstrap;51.3;18.2;197.0;3750.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>197</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3750</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Chinstrap;46.0;18.9;195.0;4150.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>46</v>
+      </c>
+      <c r="C156" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>195</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4150</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Chinstrap;51.3;19.9;198.0;3700.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>198</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Chinstrap;46.6;17.8;193.0;3800.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>193</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Chinstrap;51.7;20.3;194.0;3775.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="C159" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>194</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3775</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Chinstrap;47.0;17.3;185.0;3700.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>47</v>
+      </c>
+      <c r="C160" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>185</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Chinstrap;52.0;18.1;201.0;4050.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>52</v>
+      </c>
+      <c r="C161" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>201</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4050</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Chinstrap;45.9;17.1;190.0;3575.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>190</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3575</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Chinstrap;50.5;19.6;201.0;4050.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>201</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4050</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Chinstrap;50.3;20.0;197.0;3300.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>20</v>
+      </c>
+      <c r="D164" t="n">
+        <v>197</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Chinstrap;58.0;17.8;181.0;3700.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>58</v>
+      </c>
+      <c r="C165" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>181</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Chinstrap;46.4;18.6;190.0;3450.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C166" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>190</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Chinstrap;49.2;18.2;195.0;4400.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>195</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Chinstrap;42.4;17.3;181.0;3600.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>181</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Chinstrap;48.5;17.5;191.0;3400.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>191</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Chinstrap;43.2;16.6;187.0;2900.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>187</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2900</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Chinstrap;50.6;19.4;193.0;3800.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>193</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Chinstrap;46.7;17.9;195.0;3300.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>195</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Chinstrap;52.0;19.0;197.0;4150.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>52</v>
+      </c>
+      <c r="C173" t="n">
+        <v>19</v>
+      </c>
+      <c r="D173" t="n">
+        <v>197</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4150</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Chinstrap;50.5;18.4;200.0;3400.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>200</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Chinstrap;49.5;19.0;200.0;3800.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>19</v>
+      </c>
+      <c r="D175" t="n">
+        <v>200</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Chinstrap;46.4;17.8;191.0;3700.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C176" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D176" t="n">
+        <v>191</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Chinstrap;52.8;20.0;205.0;4550.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>20</v>
+      </c>
+      <c r="D177" t="n">
+        <v>205</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4550</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Chinstrap;40.9;16.6;187.0;3200.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>187</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Chinstrap;54.2;20.8;201.0;4300.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>201</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Chinstrap;42.5;16.7;187.0;3350.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>187</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3350</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Chinstrap;51.0;18.8;203.0;4100.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>51</v>
+      </c>
+      <c r="C181" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D181" t="n">
+        <v>203</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Chinstrap;49.7;18.6;195.0;3600.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C182" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>195</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Chinstrap;47.5;16.8;199.0;3900.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>199</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3900</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Chinstrap;47.6;18.3;195.0;3850.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>195</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3850</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Chinstrap;52.0;20.7;210.0;4800.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>52</v>
+      </c>
+      <c r="C185" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D185" t="n">
+        <v>210</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Chinstrap;46.9;16.6;192.0;2700.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C186" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>192</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Chinstrap;53.5;19.9;205.0;4500.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>205</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Chinstrap;49.0;19.5;210.0;3950.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>49</v>
+      </c>
+      <c r="C188" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>210</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Chinstrap;46.2;17.5;187.0;3650.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>187</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3650</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Chinstrap;50.9;19.1;196.0;3550.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>196</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3550</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Chinstrap;45.5;17.0;196.0;3500.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>17</v>
+      </c>
+      <c r="D191" t="n">
+        <v>196</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3500</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Chinstrap;50.9;17.9;196.0;3675.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C192" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D192" t="n">
+        <v>196</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3675</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Chinstrap;50.8;18.5;201.0;4450.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>201</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4450</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Chinstrap;50.1;17.9;190.0;3400.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>190</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Chinstrap;49.0;19.6;212.0;4300.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>49</v>
+      </c>
+      <c r="C195" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>212</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Chinstrap;51.5;18.7;187.0;3250.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D196" t="n">
+        <v>187</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3250</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Chinstrap;49.8;17.3;198.0;3675.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>198</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3675</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Chinstrap;48.1;16.4;199.0;3325.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D198" t="n">
+        <v>199</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3325</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Chinstrap;51.4;19.0;201.0;3950.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>19</v>
+      </c>
+      <c r="D199" t="n">
+        <v>201</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Chinstrap;45.7;17.3;193.0;3600.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>193</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Chinstrap;50.7;19.7;203.0;4050.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C201" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D201" t="n">
+        <v>203</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4050</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Chinstrap;42.5;17.3;187.0;3350.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>187</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3350</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Chinstrap;52.2;18.8;197.0;3450.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D203" t="n">
+        <v>197</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3450</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Chinstrap;45.2;16.6;191.0;3250.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>191</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3250</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Chinstrap;49.3;19.9;203.0;4050.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C205" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D205" t="n">
+        <v>203</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4050</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Chinstrap;50.2;18.8;202.0;3800.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>202</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Chinstrap;45.6;19.4;194.0;3525.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D207" t="n">
+        <v>194</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3525</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Chinstrap;51.9;19.5;206.0;3950.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="C208" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>206</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Chinstrap;46.8;16.5;189.0;3650.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C209" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D209" t="n">
+        <v>189</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3650</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Chinstrap;45.7;17.0;195.0;3650.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="C210" t="n">
+        <v>17</v>
+      </c>
+      <c r="D210" t="n">
+        <v>195</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3650</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Chinstrap;55.8;19.8;207.0;4000.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>207</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Chinstrap;43.5;18.1;202.0;3400.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C212" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>202</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Chinstrap;49.6;18.2;193.0;3775.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C213" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>193</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3775</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Chinstrap;50.8;19.0;210.0;4100.0;MALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C214" t="n">
+        <v>19</v>
+      </c>
+      <c r="D214" t="n">
+        <v>210</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4100</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Chinstrap;50.2;18.7;198.0;3775.0;FEMALE</t>
+          <t>Chinstrap</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C215" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D215" t="n">
+        <v>198</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3775</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Gentoo;46.1;13.2;211.0;4500.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>211</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Gentoo;50.0;16.3;230.0;5700.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>50</v>
+      </c>
+      <c r="C217" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>230</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5700</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Gentoo;48.7;14.1;210.0;4450.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C218" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>210</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4450</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Gentoo;50.0;15.2;218.0;5700.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>50</v>
+      </c>
+      <c r="C219" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D219" t="n">
+        <v>218</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5700</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Gentoo;47.6;14.5;215.0;5400.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C220" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D220" t="n">
+        <v>215</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Gentoo;46.5;13.5;210.0;4550.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>210</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4550</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Gentoo;45.4;14.6;211.0;4800.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C222" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>211</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Gentoo;46.7;15.3;219.0;5200.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>219</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Gentoo;43.3;13.4;209.0;4400.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C224" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>209</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Gentoo;46.8;15.4;215.0;5150.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C225" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>215</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5150</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Gentoo;40.9;13.7;214.0;4650.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D226" t="n">
+        <v>214</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4650</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Gentoo;49.0;16.1;216.0;5550.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>49</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>216</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Gentoo;45.5;13.7;214.0;4650.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C228" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D228" t="n">
+        <v>214</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4650</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Gentoo;48.4;14.6;213.0;5850.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C229" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D229" t="n">
+        <v>213</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Gentoo;45.8;14.6;210.0;4200.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C230" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>210</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Gentoo;49.3;15.7;217.0;5850.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C231" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D231" t="n">
+        <v>217</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Gentoo;42.0;13.5;210.0;4150.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>42</v>
+      </c>
+      <c r="C232" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>210</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4150</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Gentoo;49.2;15.2;221.0;6300.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C233" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>221</v>
+      </c>
+      <c r="E233" t="n">
+        <v>6300</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Gentoo;46.2;14.5;209.0;4800.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C234" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>209</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Gentoo;48.7;15.1;222.0;5350.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C235" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>222</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5350</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Gentoo;50.2;14.3;218.0;5700.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C236" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>218</v>
+      </c>
+      <c r="E236" t="n">
+        <v>5700</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Gentoo;45.1;14.5;215.0;5000.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>215</v>
+      </c>
+      <c r="E237" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Gentoo;46.5;14.5;213.0;4400.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C238" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>213</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Gentoo;46.3;15.8;215.0;5050.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C239" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>215</v>
+      </c>
+      <c r="E239" t="n">
+        <v>5050</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Gentoo;42.9;13.1;215.0;5000.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>215</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Gentoo;46.1;15.1;215.0;5100.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>215</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5100</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Gentoo;47.8;15.0;215.0;5650.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C242" t="n">
+        <v>15</v>
+      </c>
+      <c r="D242" t="n">
+        <v>215</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5650</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Gentoo;48.2;14.3;210.0;4600.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C243" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D243" t="n">
+        <v>210</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4600</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Gentoo;50.0;15.3;220.0;5550.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>50</v>
+      </c>
+      <c r="C244" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>220</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Gentoo;47.3;15.3;222.0;5250.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C245" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D245" t="n">
+        <v>222</v>
+      </c>
+      <c r="E245" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Gentoo;42.8;14.2;209.0;4700.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="C246" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>209</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4700</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Gentoo;45.1;14.5;207.0;5050.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>207</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5050</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Gentoo;59.6;17.0;230.0;6050.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C248" t="n">
+        <v>17</v>
+      </c>
+      <c r="D248" t="n">
+        <v>230</v>
+      </c>
+      <c r="E248" t="n">
+        <v>6050</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Gentoo;49.1;14.8;220.0;5150.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D249" t="n">
+        <v>220</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5150</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Gentoo;48.4;16.3;220.0;5400.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C250" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>220</v>
+      </c>
+      <c r="E250" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Gentoo;42.6;13.7;213.0;4950.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="C251" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D251" t="n">
+        <v>213</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4950</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Gentoo;44.4;17.3;219.0;5250.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C252" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D252" t="n">
+        <v>219</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Gentoo;44.0;13.6;208.0;4350.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>44</v>
+      </c>
+      <c r="C253" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D253" t="n">
+        <v>208</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4350</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Gentoo;48.7;15.7;208.0;5350.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C254" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D254" t="n">
+        <v>208</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5350</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Gentoo;42.7;13.7;208.0;3950.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C255" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D255" t="n">
+        <v>208</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3950</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Gentoo;49.6;16.0;225.0;5700.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C256" t="n">
+        <v>16</v>
+      </c>
+      <c r="D256" t="n">
+        <v>225</v>
+      </c>
+      <c r="E256" t="n">
+        <v>5700</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Gentoo;45.3;13.7;210.0;4300.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="C257" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D257" t="n">
+        <v>210</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Gentoo;49.6;15.0;216.0;4750.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="C258" t="n">
+        <v>15</v>
+      </c>
+      <c r="D258" t="n">
+        <v>216</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4750</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Gentoo;50.5;15.9;222.0;5550.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C259" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D259" t="n">
+        <v>222</v>
+      </c>
+      <c r="E259" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Gentoo;43.6;13.9;217.0;4900.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="C260" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D260" t="n">
+        <v>217</v>
+      </c>
+      <c r="E260" t="n">
+        <v>4900</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Gentoo;45.5;13.9;210.0;4200.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D261" t="n">
+        <v>210</v>
+      </c>
+      <c r="E261" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Gentoo;50.5;15.9;225.0;5400.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C262" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D262" t="n">
+        <v>225</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Gentoo;44.9;13.3;213.0;5100.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C263" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>213</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5100</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Gentoo;45.2;15.8;215.0;5300.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C264" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D264" t="n">
+        <v>215</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Gentoo;46.6;14.2;210.0;4850.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C265" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D265" t="n">
+        <v>210</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4850</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Gentoo;48.5;14.1;220.0;5300.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C266" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>220</v>
+      </c>
+      <c r="E266" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Gentoo;45.1;14.4;210.0;4400.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D267" t="n">
+        <v>210</v>
+      </c>
+      <c r="E267" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Gentoo;50.1;15.0;225.0;5000.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>15</v>
+      </c>
+      <c r="D268" t="n">
+        <v>225</v>
+      </c>
+      <c r="E268" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Gentoo;46.5;14.4;217.0;4900.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C269" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D269" t="n">
+        <v>217</v>
+      </c>
+      <c r="E269" t="n">
+        <v>4900</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Gentoo;45.0;15.4;220.0;5050.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>45</v>
+      </c>
+      <c r="C270" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D270" t="n">
+        <v>220</v>
+      </c>
+      <c r="E270" t="n">
+        <v>5050</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Gentoo;43.8;13.9;208.0;4300.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="C271" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D271" t="n">
+        <v>208</v>
+      </c>
+      <c r="E271" t="n">
+        <v>4300</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Gentoo;45.5;15.0;220.0;5000.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C272" t="n">
+        <v>15</v>
+      </c>
+      <c r="D272" t="n">
+        <v>220</v>
+      </c>
+      <c r="E272" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Gentoo;43.2;14.5;208.0;4450.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C273" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>208</v>
+      </c>
+      <c r="E273" t="n">
+        <v>4450</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Gentoo;50.4;15.3;224.0;5550.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C274" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D274" t="n">
+        <v>224</v>
+      </c>
+      <c r="E274" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Gentoo;45.3;13.8;208.0;4200.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="C275" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D275" t="n">
+        <v>208</v>
+      </c>
+      <c r="E275" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Gentoo;46.2;14.9;221.0;5300.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C276" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D276" t="n">
+        <v>221</v>
+      </c>
+      <c r="E276" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Gentoo;45.7;13.9;214.0;4400.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="C277" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D277" t="n">
+        <v>214</v>
+      </c>
+      <c r="E277" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Gentoo;54.3;15.7;231.0;5650.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="C278" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>231</v>
+      </c>
+      <c r="E278" t="n">
+        <v>5650</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Gentoo;45.8;14.2;219.0;4700.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C279" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D279" t="n">
+        <v>219</v>
+      </c>
+      <c r="E279" t="n">
+        <v>4700</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Gentoo;49.8;16.8;230.0;5700.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C280" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="D280" t="n">
+        <v>230</v>
+      </c>
+      <c r="E280" t="n">
+        <v>5700</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Gentoo;49.5;16.2;229.0;5800.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C281" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D281" t="n">
+        <v>229</v>
+      </c>
+      <c r="E281" t="n">
+        <v>5800</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Gentoo;43.5;14.2;220.0;4700.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C282" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D282" t="n">
+        <v>220</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4700</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Gentoo;50.7;15.0;223.0;5550.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C283" t="n">
+        <v>15</v>
+      </c>
+      <c r="D283" t="n">
+        <v>223</v>
+      </c>
+      <c r="E283" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Gentoo;47.7;15.0;216.0;4750.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C284" t="n">
+        <v>15</v>
+      </c>
+      <c r="D284" t="n">
+        <v>216</v>
+      </c>
+      <c r="E284" t="n">
+        <v>4750</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Gentoo;46.4;15.6;221.0;5000.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C285" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>221</v>
+      </c>
+      <c r="E285" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Gentoo;48.2;15.6;221.0;5100.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C286" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D286" t="n">
+        <v>221</v>
+      </c>
+      <c r="E286" t="n">
+        <v>5100</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Gentoo;46.5;14.8;217.0;5200.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C287" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D287" t="n">
+        <v>217</v>
+      </c>
+      <c r="E287" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Gentoo;46.4;15.0;216.0;4700.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C288" t="n">
+        <v>15</v>
+      </c>
+      <c r="D288" t="n">
+        <v>216</v>
+      </c>
+      <c r="E288" t="n">
+        <v>4700</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Gentoo;48.6;16.0;230.0;5800.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C289" t="n">
+        <v>16</v>
+      </c>
+      <c r="D289" t="n">
+        <v>230</v>
+      </c>
+      <c r="E289" t="n">
+        <v>5800</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Gentoo;47.5;14.2;209.0;4600.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C290" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D290" t="n">
+        <v>209</v>
+      </c>
+      <c r="E290" t="n">
+        <v>4600</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Gentoo;51.1;16.3;220.0;6000.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D291" t="n">
+        <v>220</v>
+      </c>
+      <c r="E291" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Gentoo;45.2;13.8;215.0;4750.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C292" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D292" t="n">
+        <v>215</v>
+      </c>
+      <c r="E292" t="n">
+        <v>4750</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Gentoo;45.2;16.4;223.0;5950.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C293" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D293" t="n">
+        <v>223</v>
+      </c>
+      <c r="E293" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Gentoo;49.1;14.5;212.0;4625.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D294" t="n">
+        <v>212</v>
+      </c>
+      <c r="E294" t="n">
+        <v>4625</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Gentoo;52.5;15.6;221.0;5450.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C295" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D295" t="n">
+        <v>221</v>
+      </c>
+      <c r="E295" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Gentoo;47.4;14.6;212.0;4725.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C296" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D296" t="n">
+        <v>212</v>
+      </c>
+      <c r="E296" t="n">
+        <v>4725</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Gentoo;50.0;15.9;224.0;5350.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>50</v>
+      </c>
+      <c r="C297" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D297" t="n">
+        <v>224</v>
+      </c>
+      <c r="E297" t="n">
+        <v>5350</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Gentoo;44.9;13.8;212.0;4750.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C298" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D298" t="n">
+        <v>212</v>
+      </c>
+      <c r="E298" t="n">
+        <v>4750</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Gentoo;50.8;17.3;228.0;5600.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C299" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D299" t="n">
+        <v>228</v>
+      </c>
+      <c r="E299" t="n">
+        <v>5600</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Gentoo;43.4;14.4;218.0;4600.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C300" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D300" t="n">
+        <v>218</v>
+      </c>
+      <c r="E300" t="n">
+        <v>4600</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Gentoo;51.3;14.2;218.0;5300.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C301" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D301" t="n">
+        <v>218</v>
+      </c>
+      <c r="E301" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Gentoo;47.5;14.0;212.0;4875.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C302" t="n">
+        <v>14</v>
+      </c>
+      <c r="D302" t="n">
+        <v>212</v>
+      </c>
+      <c r="E302" t="n">
+        <v>4875</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Gentoo;52.1;17.0;230.0;5550.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>17</v>
+      </c>
+      <c r="D303" t="n">
+        <v>230</v>
+      </c>
+      <c r="E303" t="n">
+        <v>5550</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Gentoo;47.5;15.0;218.0;4950.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C304" t="n">
+        <v>15</v>
+      </c>
+      <c r="D304" t="n">
+        <v>218</v>
+      </c>
+      <c r="E304" t="n">
+        <v>4950</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Gentoo;52.2;17.1;228.0;5400.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C305" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>228</v>
+      </c>
+      <c r="E305" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Gentoo;45.5;14.5;212.0;4750.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="C306" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D306" t="n">
+        <v>212</v>
+      </c>
+      <c r="E306" t="n">
+        <v>4750</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Gentoo;49.5;16.1;224.0;5650.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C307" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>224</v>
+      </c>
+      <c r="E307" t="n">
+        <v>5650</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Gentoo;44.5;14.7;214.0;4850.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="C308" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D308" t="n">
+        <v>214</v>
+      </c>
+      <c r="E308" t="n">
+        <v>4850</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Gentoo;50.8;15.7;226.0;5200.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C309" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D309" t="n">
+        <v>226</v>
+      </c>
+      <c r="E309" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Gentoo;49.4;15.8;216.0;4925.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C310" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D310" t="n">
+        <v>216</v>
+      </c>
+      <c r="E310" t="n">
+        <v>4925</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Gentoo;46.9;14.6;222.0;4875.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C311" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D311" t="n">
+        <v>222</v>
+      </c>
+      <c r="E311" t="n">
+        <v>4875</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Gentoo;48.4;14.4;203.0;4625.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="C312" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D312" t="n">
+        <v>203</v>
+      </c>
+      <c r="E312" t="n">
+        <v>4625</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Gentoo;51.1;16.5;225.0;5250.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D313" t="n">
+        <v>225</v>
+      </c>
+      <c r="E313" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Gentoo;48.5;15.0;219.0;4850.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C314" t="n">
+        <v>15</v>
+      </c>
+      <c r="D314" t="n">
+        <v>219</v>
+      </c>
+      <c r="E314" t="n">
+        <v>4850</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Gentoo;55.9;17.0;228.0;5600.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C315" t="n">
+        <v>17</v>
+      </c>
+      <c r="D315" t="n">
+        <v>228</v>
+      </c>
+      <c r="E315" t="n">
+        <v>5600</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Gentoo;47.2;15.5;215.0;4975.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C316" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D316" t="n">
+        <v>215</v>
+      </c>
+      <c r="E316" t="n">
+        <v>4975</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Gentoo;49.1;15.0;228.0;5500.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>15</v>
+      </c>
+      <c r="D317" t="n">
+        <v>228</v>
+      </c>
+      <c r="E317" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Gentoo;46.8;16.1;215.0;5500.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C318" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>215</v>
+      </c>
+      <c r="E318" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Gentoo;41.7;14.7;210.0;4700.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C319" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D319" t="n">
+        <v>210</v>
+      </c>
+      <c r="E319" t="n">
+        <v>4700</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Gentoo;53.4;15.8;219.0;5500.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C320" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D320" t="n">
+        <v>219</v>
+      </c>
+      <c r="E320" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Gentoo;43.3;14.0;208.0;4575.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="C321" t="n">
+        <v>14</v>
+      </c>
+      <c r="D321" t="n">
+        <v>208</v>
+      </c>
+      <c r="E321" t="n">
+        <v>4575</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Gentoo;48.1;15.1;209.0;5500.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C322" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>209</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Gentoo;50.5;15.2;216.0;5000.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C323" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D323" t="n">
+        <v>216</v>
+      </c>
+      <c r="E323" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Gentoo;49.8;15.9;229.0;5950.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C324" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D324" t="n">
+        <v>229</v>
+      </c>
+      <c r="E324" t="n">
+        <v>5950</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Gentoo;43.5;15.2;213.0;4650.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="C325" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D325" t="n">
+        <v>213</v>
+      </c>
+      <c r="E325" t="n">
+        <v>4650</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Gentoo;51.5;16.3;230.0;5500.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C326" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D326" t="n">
+        <v>230</v>
+      </c>
+      <c r="E326" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Gentoo;46.2;14.1;217.0;4375.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C327" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>217</v>
+      </c>
+      <c r="E327" t="n">
+        <v>4375</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Gentoo;55.1;16.0;230.0;5850.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>16</v>
+      </c>
+      <c r="D328" t="n">
+        <v>230</v>
+      </c>
+      <c r="E328" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Gentoo;48.8;16.2;222.0;6000.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="C329" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D329" t="n">
+        <v>222</v>
+      </c>
+      <c r="E329" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Gentoo;47.2;13.7;214.0;4925.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D330" t="n">
+        <v>214</v>
+      </c>
+      <c r="E330" t="n">
+        <v>4925</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Gentoo;46.8;14.3;215.0;4850.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C331" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D331" t="n">
+        <v>215</v>
+      </c>
+      <c r="E331" t="n">
+        <v>4850</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Gentoo;50.4;15.7;222.0;5750.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C332" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D332" t="n">
+        <v>222</v>
+      </c>
+      <c r="E332" t="n">
+        <v>5750</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Gentoo;45.2;14.8;212.0;5200.0;FEMALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C333" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D333" t="n">
+        <v>212</v>
+      </c>
+      <c r="E333" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Gentoo;49.9;16.1;213.0;5400.0;MALE</t>
+          <t>Gentoo</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C334" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>213</v>
+      </c>
+      <c r="E334" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>MALE</t>
         </is>
       </c>
     </row>
